--- a/01_スケジュール/【Unityゲーム開発】WBS.xlsx
+++ b/01_スケジュール/【Unityゲーム開発】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/unity2DGame/01_スケジュール/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{032906F6-58B9-4152-867B-D7949D658AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7258C766-3B21-403C-AA12-30E37FE511C5}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{032906F6-58B9-4152-867B-D7949D658AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39178C91-30FE-43B6-944D-63B298D877A1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B43C839-2184-46EC-A5A1-A99CBE90FBE3}"/>
   </bookViews>
@@ -487,7 +487,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラフに時間がかかってしまったため遅延。</t>
+    <t>ラフに時間がかかってしまったため遅延。
+時間がかかるためほかのタスクを優先する</t>
     <rPh sb="3" eb="5">
       <t>ジカン</t>
     </rPh>
@@ -497,9 +498,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.4が完了していないため遅延</t>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
+    <t>No.4が終わっていないため遅延</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
     </rPh>
     <rPh sb="14" eb="16">
       <t>チエン</t>
@@ -507,12 +508,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.7が完了していないため遅延</t>
+    <t>No.7の遅延によりNo.11を優先</t>
     <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
       <t>チエン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユウセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -631,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +663,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -673,6 +677,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,16 +1028,16 @@
       <c r="G1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
@@ -1054,14 +1061,14 @@
       <c r="G2" s="7">
         <v>44375</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -1085,14 +1092,14 @@
       <c r="G3" s="7">
         <v>44376</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -1116,18 +1123,18 @@
       <c r="G4" s="7">
         <v>44377</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1147,16 +1154,16 @@
         <v>44376</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -1180,14 +1187,14 @@
       <c r="G6" s="7">
         <v>44376</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -1211,14 +1218,14 @@
       <c r="G7" s="7">
         <v>44377</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -1236,18 +1243,22 @@
       <c r="E8" s="7">
         <v>44378</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="7">
+        <v>44378</v>
+      </c>
+      <c r="G8" s="7">
+        <v>44378</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -1265,18 +1276,18 @@
       <c r="E9" s="7">
         <v>44382</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
@@ -1294,16 +1305,18 @@
       <c r="E10" s="7">
         <v>44379</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="F10" s="7">
+        <v>44378</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -1321,16 +1334,16 @@
       <c r="E11" s="7">
         <v>44383</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -1348,16 +1361,20 @@
       <c r="E12" s="7">
         <v>44382</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="F12" s="7">
+        <v>44378</v>
+      </c>
+      <c r="G12" s="7">
+        <v>44378</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -1377,14 +1394,14 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -1404,14 +1421,14 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -1431,14 +1448,14 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -1458,14 +1475,14 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
@@ -1485,14 +1502,14 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -1512,14 +1529,14 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -1539,14 +1556,14 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
@@ -1566,14 +1583,14 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -1593,14 +1610,14 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -1620,14 +1637,14 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
@@ -1647,14 +1664,14 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -1674,14 +1691,14 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -1701,14 +1718,14 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -1728,14 +1745,14 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -1755,14 +1772,14 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -1782,14 +1799,14 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O28" xr:uid="{02A98C33-BF6E-4F7D-B9F0-C6D4C41912A5}">
@@ -1802,15 +1819,13 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="H27:O27"/>
     <mergeCell ref="H21:O21"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -1823,13 +1838,15 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1882,9 +1899,9 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1904,11 +1921,11 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="1">
         <v>50</v>
       </c>
@@ -1938,11 +1955,11 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1">
         <v>40</v>
       </c>
@@ -1971,11 +1988,11 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1">
         <v>25</v>
       </c>
@@ -2007,11 +2024,11 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1">
         <v>45</v>
       </c>
@@ -2042,11 +2059,11 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1">
         <v>20</v>
       </c>
@@ -2075,11 +2092,11 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1">
         <v>25</v>
       </c>
@@ -2110,11 +2127,11 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1">
         <v>75</v>
       </c>
@@ -2147,11 +2164,11 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1">
         <v>30</v>
       </c>
@@ -2182,11 +2199,11 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1">
         <v>20</v>
       </c>
@@ -2217,11 +2234,11 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1">
         <v>20</v>
       </c>
@@ -2250,11 +2267,11 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
@@ -2288,11 +2305,11 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1">
         <v>35</v>
       </c>
@@ -2325,11 +2342,11 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="1">
         <v>40</v>
       </c>
@@ -2362,11 +2379,11 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="1">
         <v>45</v>
       </c>
@@ -2399,11 +2416,11 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1">
         <v>30</v>
       </c>
@@ -2434,11 +2451,11 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="1">
         <v>30</v>
       </c>
@@ -2481,11 +2498,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="1">
         <v>40</v>
       </c>
@@ -2518,11 +2535,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="1">
         <v>30</v>
       </c>
@@ -2557,11 +2574,11 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="1">
         <v>30</v>
       </c>
@@ -2596,11 +2613,11 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="1">
         <v>45</v>
       </c>
@@ -2629,11 +2646,11 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="1">
         <v>30</v>
       </c>
@@ -2664,11 +2681,11 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="1">
         <v>20</v>
       </c>
@@ -2691,11 +2708,11 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1">
         <v>15</v>
       </c>
@@ -2719,6 +2736,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -2731,18 +2760,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_スケジュール/【Unityゲーム開発】WBS.xlsx
+++ b/01_スケジュール/【Unityゲーム開発】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/unity2DGame/01_スケジュール/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{032906F6-58B9-4152-867B-D7949D658AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39178C91-30FE-43B6-944D-63B298D877A1}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{032906F6-58B9-4152-867B-D7949D658AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808A9468-477A-4CCF-9D3F-38F2BFCE1998}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B43C839-2184-46EC-A5A1-A99CBE90FBE3}"/>
   </bookViews>
@@ -508,11 +508,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.7の遅延によりNo.11を優先</t>
+    <t>No.7が完了していても、No.4次第では差替えになるため他タスク優先</t>
     <rPh sb="5" eb="7">
-      <t>チエン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サシカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
       <t>ユウセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -669,6 +678,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -677,9 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,12 +1006,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A98C33-BF6E-4F7D-B9F0-C6D4C41912A5}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1153,8 +1167,8 @@
       <c r="F5" s="7">
         <v>44376</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="12" t="s">
         <v>96</v>
       </c>
       <c r="I5" s="10"/>
@@ -1308,7 +1322,9 @@
       <c r="F10" s="7">
         <v>44378</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="7">
+        <v>44378</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -1334,7 +1350,9 @@
       <c r="E11" s="7">
         <v>44383</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7">
+        <v>44378</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -1392,8 +1410,12 @@
       <c r="E13" s="7">
         <v>44383</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="7">
+        <v>44379</v>
+      </c>
+      <c r="G13" s="7">
+        <v>44379</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1419,8 +1441,12 @@
       <c r="E14" s="7">
         <v>44383</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="7">
+        <v>44379</v>
+      </c>
+      <c r="G14" s="7">
+        <v>44379</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -1819,13 +1845,15 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
     <mergeCell ref="H21:O21"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -1838,15 +1866,13 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="H27:O27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1899,9 +1925,9 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1921,11 +1947,11 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="1">
         <v>50</v>
       </c>
@@ -1955,11 +1981,11 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1">
         <v>40</v>
       </c>
@@ -1988,11 +2014,11 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1">
         <v>25</v>
       </c>
@@ -2024,11 +2050,11 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1">
         <v>45</v>
       </c>
@@ -2059,11 +2085,11 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1">
         <v>20</v>
       </c>
@@ -2092,11 +2118,11 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="1">
         <v>25</v>
       </c>
@@ -2127,11 +2153,11 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1">
         <v>75</v>
       </c>
@@ -2164,11 +2190,11 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1">
         <v>30</v>
       </c>
@@ -2199,11 +2225,11 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1">
         <v>20</v>
       </c>
@@ -2234,11 +2260,11 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1">
         <v>20</v>
       </c>
@@ -2267,11 +2293,11 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
@@ -2305,11 +2331,11 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1">
         <v>35</v>
       </c>
@@ -2342,11 +2368,11 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1">
         <v>40</v>
       </c>
@@ -2379,11 +2405,11 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="1">
         <v>45</v>
       </c>
@@ -2416,11 +2442,11 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1">
         <v>30</v>
       </c>
@@ -2451,11 +2477,11 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="1">
         <v>30</v>
       </c>
@@ -2498,11 +2524,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="1">
         <v>40</v>
       </c>
@@ -2535,11 +2561,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="1">
         <v>30</v>
       </c>
@@ -2574,11 +2600,11 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="1">
         <v>30</v>
       </c>
@@ -2613,11 +2639,11 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="1">
         <v>45</v>
       </c>
@@ -2646,11 +2672,11 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1">
         <v>30</v>
       </c>
@@ -2681,11 +2707,11 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="1">
         <v>20</v>
       </c>
@@ -2708,11 +2734,11 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="1">
         <v>15</v>
       </c>
@@ -2736,6 +2762,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
@@ -2748,18 +2786,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_スケジュール/【Unityゲーム開発】WBS.xlsx
+++ b/01_スケジュール/【Unityゲーム開発】WBS.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/unity2DGame/01_スケジュール/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{032906F6-58B9-4152-867B-D7949D658AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808A9468-477A-4CCF-9D3F-38F2BFCE1998}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{032906F6-58B9-4152-867B-D7949D658AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FA30EC-2DFF-4C1D-B45F-E89F838326DC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B43C839-2184-46EC-A5A1-A99CBE90FBE3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t>タイトル作成</t>
   </si>
@@ -504,25 +504,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>チエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.7が完了していても、No.4次第では差替えになるため他タスク優先</t>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サシカ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ユウセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1004,11 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A98C33-BF6E-4F7D-B9F0-C6D4C41912A5}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1290,11 +1270,13 @@
       <c r="E9" s="7">
         <v>44382</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="F9" s="7">
+        <v>44378</v>
+      </c>
+      <c r="G9" s="7">
+        <v>44379</v>
+      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1353,7 +1335,9 @@
       <c r="F11" s="7">
         <v>44378</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="7">
+        <v>44382</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1411,10 +1395,10 @@
         <v>44383</v>
       </c>
       <c r="F13" s="7">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="G13" s="7">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1442,10 +1426,10 @@
         <v>44383</v>
       </c>
       <c r="F14" s="7">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="G14" s="7">
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1472,8 +1456,12 @@
       <c r="E15" s="7">
         <v>44383</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="7">
+        <v>44382</v>
+      </c>
+      <c r="G15" s="7">
+        <v>44382</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1499,8 +1487,12 @@
       <c r="E16" s="7">
         <v>44384</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="7">
+        <v>44383</v>
+      </c>
+      <c r="G16" s="7">
+        <v>44383</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1526,8 +1518,12 @@
       <c r="E17" s="7">
         <v>44384</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="7">
+        <v>44383</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44383</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1553,7 +1549,9 @@
       <c r="E18" s="7">
         <v>44385</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="7">
+        <v>44383</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1580,7 +1578,9 @@
       <c r="E19" s="7">
         <v>44384</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="7">
+        <v>44383</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1882,10 +1882,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E258381D-2BE7-4961-95FC-778714753DC0}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/01_スケジュール/【Unityゲーム開発】WBS.xlsx
+++ b/01_スケジュール/【Unityゲーム開発】WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/unity2DGame/01_スケジュール/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{032906F6-58B9-4152-867B-D7949D658AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FA30EC-2DFF-4C1D-B45F-E89F838326DC}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{032906F6-58B9-4152-867B-D7949D658AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01162445-37AB-4133-9284-D077B134A7CD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B43C839-2184-46EC-A5A1-A99CBE90FBE3}"/>
   </bookViews>
@@ -988,7 +988,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1552,7 +1554,9 @@
       <c r="F18" s="7">
         <v>44383</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="7">
+        <v>44384</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -1581,7 +1585,9 @@
       <c r="F19" s="7">
         <v>44383</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="7">
+        <v>44384</v>
+      </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -1845,15 +1851,13 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="H27:O27"/>
     <mergeCell ref="H21:O21"/>
     <mergeCell ref="H10:O10"/>
     <mergeCell ref="H11:O11"/>
@@ -1866,13 +1870,15 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2763,6 +2769,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -2775,18 +2793,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
